--- a/biology/Microbiologie/Chlamydia_muridarum/Chlamydia_muridarum.xlsx
+++ b/biology/Microbiologie/Chlamydia_muridarum/Chlamydia_muridarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlamydia muridarum est une espèce de bactéries intracellulaire (en) de la famille des Chlamydiaceae. Durant un temps, elle a été confondue avec Chlamydia trachomatis. Cependant, cette dernière infecte seulement les humains et C. muridarum les membres de la famille des Muridae (y compris les souris et les hamsters, Alderton, 1996).
 Deux souches de Chlamydia muridarum, MoPn (initialement nommée Nigg) et SFPD, ont été isolés depuis des souris et des hamsters. La production de glycogène par les deux souches a été démontrée, même s'il est difficile de détecter le glycogène de MoPn. Le chromosome et le plasmide extrachromosomique de MoPn ont été séquencés.
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, muridarum, fait référence à la famille des Muridae que cette espèce est susceptible d'infecter[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, muridarum, fait référence à la famille des Muridae que cette espèce est susceptible d'infecter.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Karin D. E. Everett, Robin M. Bush et Arthur A. Andersen, « Emended description of the order Chlamydiales, proposal of Parachlamydiaceae fam. nov. and Simkaniaceae fam. nov., each containing one monotypic genus, revised taxonomy of the family Chlamydiaceae, including a new genus and five new species, and standards for the identification of organisms », International Journal of Systematic Bacteriology, vol. 49, no 2,‎ avril 1999, p. 415–440 (ISSN 0020-7713, 1465-2102 et 1070-6259, PMID 10319462, DOI 10.1099/00207713-49-2-415, lire en ligne)</t>
         </is>
